--- a/lib/Codebook_Study_2a_Psych_Pool_Winter2021_EWB_Shift_Persist.xlsx
+++ b/lib/Codebook_Study_2a_Psych_Pool_Winter2021_EWB_Shift_Persist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashish/files/research/projects/collab/greg_bratman/nature_reappraisal/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CCDCEE-3044-8340-8745-8A1D63E190B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7BE153-FB4E-6F43-9EA9-62C7B30FFBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="83900" yWindow="-16940" windowWidth="11920" windowHeight="35160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70280" yWindow="-17280" windowWidth="11920" windowHeight="35160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="633">
   <si>
     <t>old_col_name</t>
   </si>
@@ -1202,9 +1202,6 @@
     <t>SDS_5r</t>
   </si>
   <si>
-    <t>sds_5</t>
-  </si>
-  <si>
     <t>No matter who I’m talking to, I’m always a good listener.</t>
   </si>
   <si>
@@ -1229,9 +1226,6 @@
     <t>SDS_8</t>
   </si>
   <si>
-    <t>sds_8_r</t>
-  </si>
-  <si>
     <t>I sometimes try to get even rather than forgive and forget.</t>
   </si>
   <si>
@@ -1826,9 +1820,6 @@
     <t>Strongly Agree</t>
   </si>
   <si>
-    <t>pss_</t>
-  </si>
-  <si>
     <t>Never</t>
   </si>
   <si>
@@ -1850,9 +1841,6 @@
     <t>fm_</t>
   </si>
   <si>
-    <t>ewb_</t>
-  </si>
-  <si>
     <t>All of the time</t>
   </si>
   <si>
@@ -1869,9 +1857,6 @@
   </si>
   <si>
     <t>None of the time</t>
-  </si>
-  <si>
-    <t>sds_</t>
   </si>
   <si>
     <t xml:space="preserve">True </t>
@@ -1935,6 +1920,30 @@
   </si>
   <si>
     <t>ss_avoid_6</t>
+  </si>
+  <si>
+    <t>ewb_.*_r$</t>
+  </si>
+  <si>
+    <t>pss_.*_r$</t>
+  </si>
+  <si>
+    <t>pss_.*[0-9]$</t>
+  </si>
+  <si>
+    <t>ewb_.*[0-9]$</t>
+  </si>
+  <si>
+    <t>sds_.*[0-9]$</t>
+  </si>
+  <si>
+    <t>sds_.*_r$</t>
+  </si>
+  <si>
+    <t>sds_5_r</t>
+  </si>
+  <si>
+    <t>sds_8</t>
   </si>
 </sst>
 </file>
@@ -2263,8 +2272,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B136"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6634,14 +6643,14 @@
         <v>387</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>388</v>
+        <v>631</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -6667,17 +6676,17 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -6703,17 +6712,17 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -6739,17 +6748,17 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>397</v>
+        <v>632</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -6775,17 +6784,17 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -6811,17 +6820,17 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -6847,17 +6856,17 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -6883,17 +6892,17 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -6919,17 +6928,17 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -6989,15 +6998,15 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -7023,15 +7032,15 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -7057,17 +7066,17 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -7093,17 +7102,17 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -7129,17 +7138,17 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -7165,17 +7174,17 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -7201,17 +7210,17 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -7237,17 +7246,17 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -7273,19 +7282,19 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="E137" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -7311,19 +7320,19 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="E138" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -7349,19 +7358,19 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="E139" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -7387,19 +7396,19 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="E140" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -7425,19 +7434,19 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="E141" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -7463,19 +7472,19 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -7501,19 +7510,19 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -7539,19 +7548,19 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -7577,19 +7586,19 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -7615,19 +7624,19 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -7653,19 +7662,19 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -7691,19 +7700,19 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -7729,19 +7738,19 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -7767,19 +7776,19 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -7805,19 +7814,19 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -7843,19 +7852,19 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -7881,19 +7890,19 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -7919,19 +7928,19 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -7957,19 +7966,19 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -7995,19 +8004,19 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -8033,19 +8042,19 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -8071,19 +8080,19 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -8109,19 +8118,19 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -8147,19 +8156,19 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -8185,17 +8194,17 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -8221,17 +8230,17 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -8257,17 +8266,17 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -8293,17 +8302,17 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -8329,17 +8338,17 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -8365,17 +8374,17 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -8401,17 +8410,17 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -8437,17 +8446,17 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -8473,17 +8482,17 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -8509,17 +8518,17 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -8545,17 +8554,17 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -8581,17 +8590,17 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -8617,17 +8626,17 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -31817,8 +31826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31830,21 +31839,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>549</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -31852,10 +31861,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>554</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -31863,10 +31872,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -31874,10 +31883,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -31885,10 +31894,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -31896,10 +31905,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -31907,7 +31916,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
@@ -31918,7 +31927,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B9" s="10">
         <v>3</v>
@@ -31929,10 +31938,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
@@ -31940,7 +31949,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B11" s="10">
         <v>5</v>
@@ -31951,7 +31960,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B12" s="10">
         <v>6</v>
@@ -31962,10 +31971,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C13" s="9">
         <v>7</v>
@@ -31973,10 +31982,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -31984,10 +31993,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>560</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
@@ -31995,10 +32004,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C16" s="9">
         <v>3</v>
@@ -32006,10 +32015,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -32017,10 +32026,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C18" s="9">
         <v>5</v>
@@ -32028,10 +32037,10 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C19" s="9">
         <v>6</v>
@@ -32039,10 +32048,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C20" s="9">
         <v>7</v>
@@ -32050,10 +32059,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -32061,10 +32070,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>568</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
@@ -32072,10 +32081,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C23" s="9">
         <v>3</v>
@@ -32083,10 +32092,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C24" s="9">
         <v>4</v>
@@ -32094,10 +32103,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -32105,10 +32114,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>571</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>573</v>
       </c>
       <c r="C26" s="9">
         <v>2</v>
@@ -32116,10 +32125,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C27" s="9">
         <v>3</v>
@@ -32127,10 +32136,10 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C28" s="9">
         <v>4</v>
@@ -32138,10 +32147,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C29" s="9">
         <v>5</v>
@@ -32149,10 +32158,10 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -32160,10 +32169,10 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>579</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -32171,7 +32180,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32179,7 +32188,7 @@
         <v>188</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
@@ -32190,7 +32199,7 @@
         <v>188</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C34" s="9">
         <v>2</v>
@@ -32201,7 +32210,7 @@
         <v>188</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C35" s="9">
         <v>3</v>
@@ -32212,7 +32221,7 @@
         <v>188</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C36" s="9">
         <v>4</v>
@@ -32223,7 +32232,7 @@
         <v>188</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C37" s="9">
         <v>5</v>
@@ -32234,7 +32243,7 @@
         <v>188</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C38" s="9">
         <v>6</v>
@@ -32245,7 +32254,7 @@
         <v>188</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C39" s="9">
         <v>7</v>
@@ -32256,7 +32265,7 @@
         <v>188</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C40" s="9">
         <v>8</v>
@@ -32267,7 +32276,7 @@
         <v>192</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
@@ -32278,7 +32287,7 @@
         <v>192</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C42" s="9">
         <v>2</v>
@@ -32289,7 +32298,7 @@
         <v>192</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C43" s="9">
         <v>3</v>
@@ -32300,7 +32309,7 @@
         <v>192</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C44" s="9">
         <v>4</v>
@@ -32311,7 +32320,7 @@
         <v>192</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C45" s="9">
         <v>5</v>
@@ -32319,10 +32328,10 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C46" s="9">
         <v>1</v>
@@ -32330,10 +32339,10 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C47" s="9">
         <v>2</v>
@@ -32341,10 +32350,10 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C48" s="9">
         <v>3</v>
@@ -32352,10 +32361,10 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C49" s="9">
         <v>4</v>
@@ -32363,10 +32372,10 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>593</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>595</v>
       </c>
       <c r="C50" s="9">
         <v>5</v>
@@ -32374,57 +32383,57 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>597</v>
+        <v>249</v>
+      </c>
+      <c r="B51" s="10">
+        <v>10</v>
       </c>
       <c r="C51" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>598</v>
+        <v>249</v>
+      </c>
+      <c r="B52" s="10">
+        <v>9</v>
       </c>
       <c r="C52" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>599</v>
+        <v>249</v>
+      </c>
+      <c r="B53" s="10">
+        <v>8</v>
       </c>
       <c r="C53" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>600</v>
+        <v>249</v>
+      </c>
+      <c r="B54" s="10">
+        <v>7</v>
       </c>
       <c r="C54" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>601</v>
+        <v>249</v>
+      </c>
+      <c r="B55" s="10">
+        <v>6</v>
       </c>
       <c r="C55" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32432,10 +32441,10 @@
         <v>249</v>
       </c>
       <c r="B56" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C56" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32443,10 +32452,10 @@
         <v>249</v>
       </c>
       <c r="B57" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32454,10 +32463,10 @@
         <v>249</v>
       </c>
       <c r="B58" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C58" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32465,10 +32474,10 @@
         <v>249</v>
       </c>
       <c r="B59" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C59" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32476,315 +32485,290 @@
         <v>249</v>
       </c>
       <c r="B60" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>249</v>
+        <v>599</v>
       </c>
       <c r="B61" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>249</v>
+        <v>599</v>
       </c>
       <c r="B62" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>249</v>
+        <v>599</v>
       </c>
       <c r="B63" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>249</v>
+        <v>599</v>
       </c>
       <c r="B64" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>249</v>
+        <v>599</v>
       </c>
       <c r="B65" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B66" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C66" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B67" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C67" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B68" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C68" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B69" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C69" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B70" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C70" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B71" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C71" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B72" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C72" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B73" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C73" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B74" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C74" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B75" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C75" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B76" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C76" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B77" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C77" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B78" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B79" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B80" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C80" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B81" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C81" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B82" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C82" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B83" s="10">
-        <v>6</v>
-      </c>
-      <c r="C83" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B84" s="10">
-        <v>7</v>
-      </c>
-      <c r="C84" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>603</v>
+        <v>340</v>
       </c>
       <c r="B85" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B86" s="10">
-        <v>9</v>
+        <v>412</v>
       </c>
       <c r="C86" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>603</v>
+        <v>414</v>
       </c>
       <c r="B87" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C87" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>605</v>
+        <v>609</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="C88" s="9">
         <v>1</v>
@@ -32792,10 +32776,10 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>606</v>
+        <v>609</v>
+      </c>
+      <c r="B89" s="10">
+        <v>2</v>
       </c>
       <c r="C89" s="9">
         <v>2</v>
@@ -32803,10 +32787,10 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>607</v>
+        <v>609</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>617</v>
       </c>
       <c r="C90" s="9">
         <v>3</v>
@@ -32814,10 +32798,10 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
+      </c>
+      <c r="B91" s="10">
+        <v>4</v>
       </c>
       <c r="C91" s="9">
         <v>4</v>
@@ -32825,10 +32809,10 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B92" s="9" t="s">
         <v>609</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="C92" s="9">
         <v>5</v>
@@ -32836,217 +32820,370 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>610</v>
+        <v>557</v>
       </c>
       <c r="C93" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="C94" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>613</v>
+        <v>559</v>
       </c>
       <c r="C95" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B96" s="10">
-        <v>5</v>
+        <v>610</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="C96" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>414</v>
+        <v>610</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="C97" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B98" s="10">
-        <v>2</v>
+        <v>610</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C98" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>621</v>
+        <v>610</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>563</v>
       </c>
       <c r="C99" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="B100" s="10">
-        <v>2</v>
+        <v>628</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>601</v>
       </c>
       <c r="C100" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>622</v>
+        <v>628</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="C101" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="B102" s="10">
-        <v>4</v>
+        <v>628</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>603</v>
       </c>
       <c r="C102" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>623</v>
+        <v>628</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>604</v>
       </c>
       <c r="C103" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="C104" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C105" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="C106" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="C107" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="C108" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="C109" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="C110" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C112" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C113" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C114" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C115" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C116" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C117" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C118" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C119" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C120" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C121" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C122" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C123" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C124" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/lib/Codebook_Study_2a_Psych_Pool_Winter2021_EWB_Shift_Persist.xlsx
+++ b/lib/Codebook_Study_2a_Psych_Pool_Winter2021_EWB_Shift_Persist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashish/files/research/projects/collab/greg_bratman/nature_reappraisal/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7BE153-FB4E-6F43-9EA9-62C7B30FFBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7438AA-FA9C-D146-BE8E-68EB33F6A36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70280" yWindow="-17280" windowWidth="11920" windowHeight="35160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2272,8 +2272,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31824,10 +31824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C895"/>
+  <dimension ref="A1:C893"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32733,12 +32733,31 @@
         <v>10</v>
       </c>
     </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B83" s="10">
+        <v>5</v>
+      </c>
+      <c r="C83" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C84" s="9">
+        <v>1</v>
+      </c>
+    </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="B85" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
@@ -32746,7 +32765,10 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>412</v>
+        <v>609</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="C86" s="9">
         <v>1</v>
@@ -32754,24 +32776,24 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>414</v>
+        <v>609</v>
       </c>
       <c r="B87" s="10">
         <v>2</v>
       </c>
       <c r="C87" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>616</v>
+      <c r="B88" s="12" t="s">
+        <v>617</v>
       </c>
       <c r="C88" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32779,43 +32801,43 @@
         <v>609</v>
       </c>
       <c r="B89" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>617</v>
+      <c r="B90" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="C90" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B91" s="10">
-        <v>4</v>
+        <v>610</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="C91" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>618</v>
+        <v>610</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>611</v>
       </c>
       <c r="C92" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32823,10 +32845,10 @@
         <v>610</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C93" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32834,10 +32856,10 @@
         <v>610</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="C94" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32845,10 +32867,10 @@
         <v>610</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C95" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32856,43 +32878,43 @@
         <v>610</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C96" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>610</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C97" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="C98" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="C99" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32900,10 +32922,10 @@
         <v>628</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C100" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32911,10 +32933,10 @@
         <v>628</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C101" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32922,10 +32944,10 @@
         <v>628</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C102" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32933,32 +32955,32 @@
         <v>628</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C103" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C104" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C105" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32966,10 +32988,10 @@
         <v>625</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C106" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32977,10 +32999,10 @@
         <v>625</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C107" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32988,10 +33010,10 @@
         <v>625</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C108" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32999,29 +33021,29 @@
         <v>625</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C109" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="C110" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C111" s="9">
         <v>1</v>
@@ -33032,10 +33054,10 @@
         <v>627</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C112" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33043,10 +33065,10 @@
         <v>627</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C113" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33054,32 +33076,32 @@
         <v>627</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C114" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C115" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C116" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33087,10 +33109,10 @@
         <v>626</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C117" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33098,10 +33120,10 @@
         <v>626</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C118" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33109,78 +33131,58 @@
         <v>626</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C119" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C120" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C121" s="9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="C121" s="9">
-        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>607</v>
       </c>
       <c r="C122" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>608</v>
       </c>
       <c r="C123" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="C124" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="C125" s="9">
         <v>0</v>
       </c>
     </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33949,8 +33951,6 @@
     <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
